--- a/src/tasks/Task3.xlsx
+++ b/src/tasks/Task3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>a</t>
   </si>
@@ -563,11 +563,15 @@
       <c r="B6" s="1">
         <v>102</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>121</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -577,11 +581,15 @@
       <c r="B7" s="1">
         <v>103</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>122</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,11 +743,15 @@
       <c r="B16" s="1">
         <v>112</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>105</v>
+      </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-112</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,11 +761,15 @@
       <c r="B17" s="1">
         <v>113</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>106</v>
+      </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-113</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,11 +851,15 @@
       <c r="B22" s="1">
         <v>118</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>111</v>
+      </c>
       <c r="E22">
         <f>D22-B22</f>
-        <v>-118</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,11 +869,15 @@
       <c r="B23" s="1">
         <v>119</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>112</v>
+      </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-119</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,11 +887,15 @@
       <c r="B24" s="1">
         <v>120</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>105</v>
+      </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-120</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,11 +905,15 @@
       <c r="B25" s="1">
         <v>121</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>106</v>
+      </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-121</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,11 +923,15 @@
       <c r="B26" s="1">
         <v>122</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>115</v>
+      </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-122</v>
+        <v>-7</v>
       </c>
     </row>
   </sheetData>
